--- a/Processed Results/Mi 9T/Display/Display - Processed.xlsx
+++ b/Processed Results/Mi 9T/Display/Display - Processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40731AF-8B04-4649-ACFD-DF627286EA8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8673F1-50D8-441E-83EA-D2A46709E084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="60" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="470" yWindow="60" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Mean line</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -254,94 +260,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>359.35199999999998</c:v>
+                  <c:v>131.300928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>348.41520000000003</c:v>
+                  <c:v>119.22372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.056016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.210852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.36568800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>119.843064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.210852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>118.294704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.210852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.210852</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>118.294704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.36568800000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.056016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>116.74634399999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.52052399999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>118.604376</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>116.901179999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>342.16559999999998</c:v>
+                  <c:v>113.030279999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.675359999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.056016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.210852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.985032</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>346.8528</c:v>
+                  <c:v>117.830196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>346.8528</c:v>
+                  <c:v>119.843064</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.985032</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.675359999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.675359999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.36568800000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>116.901179999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>345.29039999999998</c:v>
+                  <c:v>117.210852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,10 +423,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>346.2278399999999</c:v>
+                  <c:v>117.99535439999978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>346.2278399999999</c:v>
+                  <c:v>117.99535439999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,7 +577,6 @@
         <c:axId val="509815096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="360"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -773,10 +778,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -824,7 +829,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="360" min="340"/>
+        <cx:valScaling min="110"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2389,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="B2 B3:B31"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2414,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>359.35199999999998</v>
+        <v>131.300928</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -2428,14 +2433,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>348.41520000000003</v>
+        <v>119.22372</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>346.2278399999999</v>
+        <v>117.99535439999978</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2443,14 +2448,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>346.8528</v>
+        <v>117.056016</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>346.2278399999999</v>
+        <v>117.99535439999978</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2458,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>346.8528</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2466,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>346.8528</v>
+        <v>117.36568800000001</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -2480,15 +2485,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>345.29039999999998</v>
+        <v>119.843064</v>
       </c>
       <c r="D7" s="1">
         <f>MIN(B2:B31)</f>
-        <v>342.16559999999998</v>
+        <v>113.030279999999</v>
       </c>
       <c r="E7" s="1">
         <f>MAX(B2:B31)</f>
-        <v>359.35199999999998</v>
+        <v>131.300928</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2496,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>346.8528</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2504,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>345.29039999999998</v>
+        <v>118.294704</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -2518,15 +2523,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>346.8528</v>
+        <v>117.210852</v>
       </c>
       <c r="D10">
         <f>QUARTILE(B2:B31, 1)</f>
-        <v>345.29039999999998</v>
+        <v>117.210852</v>
       </c>
       <c r="E10">
         <f>QUARTILE(B2:B31, 2)</f>
-        <v>345.29039999999998</v>
+        <v>117.36568800000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2534,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>345.29039999999998</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2542,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>345.29039999999998</v>
+        <v>118.294704</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -2556,15 +2561,15 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>346.8528</v>
+        <v>117.36568800000001</v>
       </c>
       <c r="D13">
         <f>QUARTILE(B2:B31, 3)</f>
-        <v>346.8528</v>
+        <v>117.985032</v>
       </c>
       <c r="E13">
         <f xml:space="preserve"> D13 - D10</f>
-        <v>1.5624000000000251</v>
+        <v>0.7741800000000012</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2572,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>345.29039999999998</v>
+        <v>117.056016</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2580,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>345.29039999999998</v>
+        <v>116.74634399999999</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
@@ -2594,138 +2599,152 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>345.29039999999998</v>
+        <v>117.52052399999999</v>
       </c>
       <c r="D16">
         <f>STDEV(B2:B31)</f>
-        <v>2.7092649204866119</v>
+        <v>2.770665941100277</v>
       </c>
       <c r="E16">
         <f>(D16 / E3) *100</f>
-        <v>0.78250926340487603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.348114428054366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118.604376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116.901179999999</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>342.16559999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113.030279999999</v>
+      </c>
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 95.321842) * 100) - 100</f>
+        <v>23.786271775990002</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 95.22216) * 100) - 100</f>
+        <v>23.254595358895443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>346.8528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.675359999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.056016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.210852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.985032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>346.8528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.830196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>346.8528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119.843064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.985032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.675359999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.675359999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.36568800000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116.901179999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>345.29039999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117.210852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
   </sheetData>
